--- a/biology/Botanique/Procris_(genre)/Procris_(genre).xlsx
+++ b/biology/Botanique/Procris_(genre)/Procris_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Procris est un genre de plantes à fleurs de la famille des Urticaceae. Il a été décrit en 1789 par le botaniste français Antoine-Laurent de Jussieu (1748-1836), à la suite des travaux du naturaliste Philibert Commerson (1727-1773).
 </t>
@@ -511,15 +523,17 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GRIN            (12 mars 2017)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN            (12 mars 2017) :
 Procris hypoleuca Steud.
 Procris monandra Buch.-Ham. ex D. Don
-Selon The Plant List            (12 mars 2017)[2] :
+Selon The Plant List            (12 mars 2017) :
 Procris crenata C.B.Rob.
 Procris pedunculata (J.R. Forst. &amp; G. Forst.) Wedd.
-Selon Tropicos                                           (12 mars 2017)[3] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (12 mars 2017) (Attention liste brute contenant possiblement des synonymes) :
 Procris acuminata Poir.
 Procris axillaris J.F. Gmel.
 Procris boninensis Tuyama
